--- a/public/public/dosyalar/student_ilk.xlsx
+++ b/public/public/dosyalar/student_ilk.xlsx
@@ -524,7 +524,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -571,6 +571,9 @@
       <c r="A2">
         <v>181307001</v>
       </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
@@ -603,6 +606,9 @@
       <c r="A3">
         <v>181307002</v>
       </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
@@ -635,6 +641,9 @@
       <c r="A4">
         <v>181307003</v>
       </c>
+      <c r="B4">
+        <v>14</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
@@ -667,6 +676,9 @@
       <c r="A5">
         <v>181307004</v>
       </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
@@ -699,6 +711,9 @@
       <c r="A6">
         <v>181307005</v>
       </c>
+      <c r="B6">
+        <v>16</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
@@ -731,6 +746,9 @@
       <c r="A7">
         <v>181307006</v>
       </c>
+      <c r="B7">
+        <v>17</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
@@ -763,6 +781,9 @@
       <c r="A8">
         <v>181307007</v>
       </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
@@ -795,6 +816,9 @@
       <c r="A9">
         <v>181307008</v>
       </c>
+      <c r="B9">
+        <v>13</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
@@ -827,6 +851,9 @@
       <c r="A10">
         <v>181307009</v>
       </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
@@ -858,6 +885,9 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>181307010</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>

--- a/public/public/dosyalar/student_ilk.xlsx
+++ b/public/public/dosyalar/student_ilk.xlsx
@@ -524,7 +524,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -572,7 +572,7 @@
         <v>181307001</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -607,7 +607,7 @@
         <v>181307002</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
@@ -642,7 +642,7 @@
         <v>181307003</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>17</v>
@@ -677,7 +677,7 @@
         <v>181307004</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -712,7 +712,7 @@
         <v>181307005</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>23</v>
@@ -747,7 +747,7 @@
         <v>181307006</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>25</v>
@@ -782,7 +782,7 @@
         <v>181307007</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>27</v>
@@ -817,7 +817,7 @@
         <v>181307008</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>29</v>
@@ -852,7 +852,7 @@
         <v>181307009</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>31</v>
@@ -887,7 +887,7 @@
         <v>181307010</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
